--- a/data2.xlsx
+++ b/data2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asasy\Desktop\EKONOMETRIA PROJEKT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Desktop\projekt ekono\PROJ\Bonds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DD4C4-1FA6-4CB7-938B-946A9340F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C7F0C-9049-4923-86D7-6CDE018F6B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D5F603A9-1764-49EE-B99B-744B142AB2EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{D5F603A9-1764-49EE-B99B-744B142AB2EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge12" sheetId="28" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -278,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +318,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -424,7 +424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,25 +600,25 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45777</v>
       </c>
@@ -715,7 +715,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45747</v>
       </c>
@@ -765,7 +765,7 @@
         <v>71.47</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45716</v>
       </c>
@@ -815,7 +815,7 @@
         <v>69.73</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45688</v>
       </c>
@@ -865,7 +865,7 @@
         <v>72.489999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45657</v>
       </c>
@@ -915,7 +915,7 @@
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45626</v>
       </c>
@@ -965,7 +965,7 @@
         <v>68.02</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45596</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>69.290000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45565</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>68.14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45535</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>73.569999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45504</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>77.91</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45473</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>81.52</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45443</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>76.98</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45412</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>81.89</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45382</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>83.15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45351</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>78.27</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45322</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>75.819999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45291</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>71.64</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45260</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>76.040000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45230</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>81.010000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45199</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>90.79</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45169</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>83.63</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45138</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45107</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>70.64</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45077</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>68.09</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45046</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>76.78</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45016</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>75.67</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44985</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>77.05</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44957</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>78.87</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44926</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>80.260000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44895</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>80.55</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44865</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44834</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>79.489999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44804</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44773</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>98.62</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44742</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>105.76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44712</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>114.67</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44681</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44651</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>100.28</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44620</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>95.72</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44592</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>88.15</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44561</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>75.209999999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44530</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>66.180000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44500</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44469</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>75.03</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44439</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>68.510000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44408</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>73.81</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44377</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>73.459999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44347</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44316</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>63.58</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44286</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>59.16</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44255</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44227</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>52.14</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44196</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>48.52</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44165</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>45.34</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44135</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44104</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44074</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44043</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>40.25</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44012</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>39.28</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43982</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>35.33</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43951</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43921</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43890</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>45.26</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43861</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43830</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43799</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>55.42</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43769</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>54.18</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43738</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43708</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43677</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>58.52</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43646</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>58.42</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43616</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43585</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>63.84</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43555</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>60.17</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43524</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>57.22</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43496</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>53.82</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43465</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>45.44</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43434</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>50.78</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43404</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>65.31</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43373</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>73.19</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43343</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>69.849999999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43312</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>68.709999999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43281</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>74.13</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43251</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>66.959999999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43220</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>68.52</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43190</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>64.91</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43159</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>61.61</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43131</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>64.69</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43100</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>60.36</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43069</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>57.43</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43039</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>54.35</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43008</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>51.68</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42978</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>47.15</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42947</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42916</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>46.02</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42886</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42855</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>49.31</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42825</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42794</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42766</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>52.76</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42735</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42704</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42674</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>46.84</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42643</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>48.11</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42613</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>44.71</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42582</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42551</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>48.26</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42521</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42490</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>45.96</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42460</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>38.29</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42429</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>33.82</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42400</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>33.67</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42369</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>37.130000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42338</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>41.64</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42308</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42277</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>45.15</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42247</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>49.19</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>42216</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>47.11</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>42185</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>59.44</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>42155</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>60.26</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42124</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>59.54</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42094</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>47.72</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>42063</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>42035</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>48.17</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>42004</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>53.49</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>41973</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>66.03</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>41943</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>80.52</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>41912</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>91.16</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>41882</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>95.93</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>41851</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>98.22</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>41820</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>105.37</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>41790</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>102.75</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>41759</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>99.78</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>41729</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>101.57</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>41698</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>102.58</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>41670</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>97.53</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>41639</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>99.28</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>41608</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>92.78</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>41578</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>96.37</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>41547</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>102.31</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>41517</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>107.78</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>41486</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>105.03</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>41455</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>96.56</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>41425</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>41394</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>93.46</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>41364</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>97.23</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>41333</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>92.05</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>41305</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>97.49</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>41274</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>91.82</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>41243</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>88.91</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>41213</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>41182</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>92.19</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>41152</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>41121</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>88.06</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>41090</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>41060</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>41029</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>104.87</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>40999</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>103.02</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>40968</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>107.07</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>40939</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>98.48</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>40908</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>98.83</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>40877</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>100.36</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>40847</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>93.19</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>40816</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>40786</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>88.81</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>40755</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>40724</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>95.42</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>40694</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>102.7</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>40663</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>113.93</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>40633</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>106.72</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>40602</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>96.97</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>40574</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>92.19</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>40543</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>89.84</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>40512</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>84.11</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>40482</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>81.430000000000007</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>40451</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>79.97</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>40421</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>71.92</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>40390</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>78.95</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>40359</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>75.63</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>40329</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>73.97</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>40298</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>86.15</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>40268</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>83.76</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>40237</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>79.66</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>40209</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>72.89</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>40178</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>79.36</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>40147</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>77.28</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>40117</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>40086</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>70.61</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>40056</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>69.959999999999994</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>40025</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>69.45</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>39994</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>39964</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>66.31</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>39933</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>51.12</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>39903</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>49.66</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>39872</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>44.76</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>39844</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>41.68</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>39813</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>39782</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>54.44</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>39752</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>67.81</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>39721</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>100.64</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>39691</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>115.96</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>39660</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>124.08</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>39629</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>39599</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>127.36</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>39568</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>113.46</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>39538</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>101.59</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>39507</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>101.85</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>39478</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>91.76</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>39447</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>96.01</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>39416</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>88.72</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>39386</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>94.54</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>39355</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>39325</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>74.05</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>39294</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>78.22</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>39263</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>70.69</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>39233</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>64.02</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>39202</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>65.709999999999994</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>39172</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>65.88</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>39141</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>39113</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>58.15</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>39082</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>61.06</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>39051</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>63.14</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>39021</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>38990</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>62.92</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>38960</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>70.27</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>38929</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>74.41</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>38898</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>73.98</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>38868</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>71.290000000000006</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>38837</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>71.89</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>38807</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>66.66</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>38776</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>61.42</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>38748</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>67.930000000000007</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>38717</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>61.04</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>38686</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>57.33</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>38656</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>59.77</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>38625</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>38595</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>68.95</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>38564</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>60.57</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>38533</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>38503</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>51.98</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>38472</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>49.73</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>38442</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>55.41</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>38411</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>51.76</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>38383</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>48.21</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>38352</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>43.46</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>38321</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>49.14</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>38291</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>51.77</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>38260</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>38230</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>42.12</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>38199</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>38168</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>37.049999999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>38138</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>38107</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>37.380000000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>38077</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>35.78</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>38046</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>38017</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>33.15</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>37986</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>32.549999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>37955</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>37925</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>29.13</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>37894</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>37864</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>31.78</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>37833</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>37802</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>37772</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>37741</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>37711</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>37680</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>36.630000000000003</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>37652</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>33.53</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>37621</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>31.23</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>37590</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>37560</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>27.23</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>37529</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>30.45</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>37499</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>28.98</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>37468</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>37437</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>37407</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>37376</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>37346</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>37315</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>37287</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>37256</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>37225</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>37195</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>37164</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>23.43</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>37134</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>27.23</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>37103</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>37072</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>37042</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>37011</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>28.48</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>36981</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>26.46</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>36950</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>28.22</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>36922</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>36891</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>36860</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>36830</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>36799</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>30.45</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>36769</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>36738</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>36707</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>36677</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>36646</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>36616</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>36585</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>36556</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>36525</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>36494</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>36464</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>36433</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>24.47</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>36403</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>21.91</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>36372</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>36341</v>
       </c>
